--- a/data_xlsx/美元指数.xlsx
+++ b/data_xlsx/美元指数.xlsx
@@ -17874,8 +17874,48 @@
         <v>99.7569</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B2225" s="2" t="n">
+        <v>99.9633</v>
+      </c>
+    </row>
     <row r="2226">
-      <c r="A2226" s="3" t="inlineStr">
+      <c r="A2226" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B2226" s="2" t="n">
+        <v>99.8982</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B2227" s="2" t="n">
+        <v>99.94470000000001</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B2228" s="2" t="n">
+        <v>100.28909999999999</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B2229" s="2" t="n">
+        <v>100.82740000000001</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
